--- a/Backend/Model Metrics/classification_report_rfc_CAP_vent.xlsx
+++ b/Backend/Model Metrics/classification_report_rfc_CAP_vent.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7981651376146789</v>
+        <v>0.9748502994011976</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.8357289527720739</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8246445497630331</v>
+        <v>0.8999447208402431</v>
       </c>
       <c r="E2" t="n">
-        <v>102</v>
+        <v>974</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.3360995850622407</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7843137254901961</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8121827411167514</v>
+        <v>0.4723032069970846</v>
       </c>
       <c r="E3" t="n">
         <v>102</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8186274509803921</v>
+        <v>0.8317843866171004</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8186274509803921</v>
+        <v>0.8317843866171004</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8186274509803921</v>
+        <v>0.8317843866171004</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8186274509803921</v>
+        <v>0.8317843866171004</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8201352003862867</v>
+        <v>0.6554749422317192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8186274509803921</v>
+        <v>0.8149232999154488</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8184136454398923</v>
+        <v>0.6861239639186638</v>
       </c>
       <c r="E5" t="n">
-        <v>204</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8201352003862868</v>
+        <v>0.9142995811274303</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8186274509803921</v>
+        <v>0.8317843866171004</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8184136454398923</v>
+        <v>0.8594062130223973</v>
       </c>
       <c r="E6" t="n">
-        <v>204</v>
+        <v>1076</v>
       </c>
     </row>
   </sheetData>
